--- a/doc/servicenow/import_change.xlsx
+++ b/doc/servicenow/import_change.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nhirt/DOCUMENTS_SYNC/4_PROJECTS/1_CLOUDPAKS/2_INSTALL/2_AIOPS/aiops-3.1/tools/4_integrations/ServiceNow/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nhirt/DOCUMENTS_SYNC/4_PROJECTS/1_CLOUDPAKS/2_INSTALL/2_AIOPS/aiops-3.2-ansible/doc/servicenow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD908EA-0CFB-1640-9CC5-5B3B9548D23E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5CC8CA-E1B0-B848-93C2-C5AA80ACFE3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34420" yWindow="500" windowWidth="34380" windowHeight="27260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9640" yWindow="500" windowWidth="34380" windowHeight="27260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Page 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="55">
   <si>
     <t>Number</t>
   </si>
@@ -182,6 +182,9 @@
   </si>
   <si>
     <t>CHG0030991</t>
+  </si>
+  <si>
+    <t>CHG9900036</t>
   </si>
 </sst>
 </file>
@@ -561,11 +564,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG2"/>
+  <dimension ref="A1:AG3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H36" sqref="H36"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -802,6 +805,105 @@
         <v>37</v>
       </c>
     </row>
+    <row r="3" spans="1:33" ht="160" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="1">
+        <v>44296.961423611108</v>
+      </c>
+      <c r="F3" s="5">
+        <v>44550.961423611108</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="T3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="U3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="V3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="W3" s="1">
+        <v>44341.961423611108</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
